--- a/Department_Meter_Readings_Jul24_Jun25.xlsx
+++ b/Department_Meter_Readings_Jul24_Jun25.xlsx
@@ -470,7 +470,7 @@
   <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="14.5"/>
